--- a/total_res/PT1_output.xlsx
+++ b/total_res/PT1_output.xlsx
@@ -53522,7 +53522,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53566,6 +53566,11 @@
           <t>average_percent</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>files</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -53591,6 +53596,9 @@
       <c r="G2" t="n">
         <v>0.01</v>
       </c>
+      <c r="H2" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -53616,6 +53624,9 @@
       <c r="G3" t="n">
         <v>0.12</v>
       </c>
+      <c r="H3" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -53641,6 +53652,9 @@
       <c r="G4" t="n">
         <v>0.06</v>
       </c>
+      <c r="H4" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -53666,6 +53680,9 @@
       <c r="G5" t="n">
         <v>0.06</v>
       </c>
+      <c r="H5" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -53691,6 +53708,9 @@
       <c r="G6" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="H6" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -53716,6 +53736,9 @@
       <c r="G7" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="H7" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -53741,6 +53764,9 @@
       <c r="G8" t="n">
         <v>0.01</v>
       </c>
+      <c r="H8" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -53766,6 +53792,9 @@
       <c r="G9" t="n">
         <v>0.06</v>
       </c>
+      <c r="H9" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -53791,6 +53820,9 @@
       <c r="G10" t="n">
         <v>0.02</v>
       </c>
+      <c r="H10" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -53816,6 +53848,9 @@
       <c r="G11" t="n">
         <v>0.04</v>
       </c>
+      <c r="H11" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -53841,6 +53876,9 @@
       <c r="G12" t="n">
         <v>0.02</v>
       </c>
+      <c r="H12" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -53866,6 +53904,9 @@
       <c r="G13" t="n">
         <v>-0.02</v>
       </c>
+      <c r="H13" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -53891,6 +53932,9 @@
       <c r="G14" t="n">
         <v>0.05</v>
       </c>
+      <c r="H14" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -53916,6 +53960,9 @@
       <c r="G15" t="n">
         <v>0.1</v>
       </c>
+      <c r="H15" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -53941,6 +53988,9 @@
       <c r="G16" t="n">
         <v>-0.04</v>
       </c>
+      <c r="H16" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -53966,6 +54016,9 @@
       <c r="G17" t="n">
         <v>0.01</v>
       </c>
+      <c r="H17" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -53991,6 +54044,9 @@
       <c r="G18" t="n">
         <v>0.04</v>
       </c>
+      <c r="H18" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -54016,6 +54072,9 @@
       <c r="G19" t="n">
         <v>-0.02</v>
       </c>
+      <c r="H19" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -54041,6 +54100,9 @@
       <c r="G20" t="n">
         <v>-0.04</v>
       </c>
+      <c r="H20" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -54066,6 +54128,9 @@
       <c r="G21" t="n">
         <v>-0.05</v>
       </c>
+      <c r="H21" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -54091,6 +54156,9 @@
       <c r="G22" t="n">
         <v>0.08</v>
       </c>
+      <c r="H22" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -54116,6 +54184,9 @@
       <c r="G23" t="n">
         <v>0</v>
       </c>
+      <c r="H23" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -54141,6 +54212,9 @@
       <c r="G24" t="n">
         <v>0.12</v>
       </c>
+      <c r="H24" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -54166,6 +54240,9 @@
       <c r="G25" t="n">
         <v>-0.19</v>
       </c>
+      <c r="H25" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -54191,6 +54268,9 @@
       <c r="G26" t="n">
         <v>-0.12</v>
       </c>
+      <c r="H26" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -54216,6 +54296,9 @@
       <c r="G27" t="n">
         <v>0.1</v>
       </c>
+      <c r="H27" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -54241,6 +54324,9 @@
       <c r="G28" t="n">
         <v>0.16</v>
       </c>
+      <c r="H28" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -54266,6 +54352,9 @@
       <c r="G29" t="n">
         <v>-0.1</v>
       </c>
+      <c r="H29" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -54291,6 +54380,9 @@
       <c r="G30" t="n">
         <v>0.18</v>
       </c>
+      <c r="H30" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -54315,6 +54407,9 @@
       </c>
       <c r="G31" t="n">
         <v>-0.41</v>
+      </c>
+      <c r="H31" t="n">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
